--- a/619_CN Gelusil.xlsx
+++ b/619_CN Gelusil.xlsx
@@ -419,242 +419,256 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>NAGARJUNA MEDICAL HALL[TL0039]</v>
       </c>
       <c r="B2" t="str">
         <v>23/619/T1/861:</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E2" t="str">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>RADHA KRISHNA MEDICAL AGENCIES[TL0071]</v>
       </c>
       <c r="B3" t="str">
         <v>23/619/T1/862:</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E3" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>LAXMI MEDICAL DISTRIBUTORS[TL0073]</v>
       </c>
       <c r="B4" t="str">
         <v>23/619/T1/863:</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E4" t="str">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>INDHU DRUGS[TL0075]</v>
       </c>
       <c r="B5" t="str">
         <v>23/619/T1/864:</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E5" t="str">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>INDHU DRUGS[TL0075]</v>
       </c>
       <c r="B6" t="str">
         <v>23/619/T1/865:</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E6" t="str">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>39100</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>INDHU DRUGS[TL0075]</v>
       </c>
       <c r="B7" t="str">
         <v>23/619/T1/866:</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E7" t="str">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>65300</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>SRI ANNAPURNA DRUGS PVT LTD[TL0082]</v>
       </c>
       <c r="B8" t="str">
         <v>23/619/T1/867:</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E8" t="str">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>50300</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>SRI ANNAPURNA DRUGS PVT LTD[TL0082]</v>
       </c>
       <c r="B9" t="str">
         <v>23/619/T1/868:</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E9" t="str">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>SRI ANNAPURNA DRUGS PVT LTD[TL0082]</v>
       </c>
       <c r="B10" t="str">
         <v>23/619/T1/869:</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E10" t="str">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>73200</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>KONARK PHARMA DISTRIBUTORS[TL0111]</v>
       </c>
       <c r="B11" t="str">
         <v>23/619/T1/870:</v>
       </c>
-      <c r="C11" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E11" t="str">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>KONARK PHARMA DISTRIBUTORS[TL0111]</v>
       </c>
       <c r="B12" t="str">
         <v>23/619/T1/871:</v>
       </c>
-      <c r="C12" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E12" t="str">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>SRINIVASA MEDICAL DISTRIBUTORS[TL0135]</v>
       </c>
       <c r="B13" t="str">
         <v>23/619/T1/872:</v>
       </c>
-      <c r="C13" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E13" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>AISHWARYA PHARMA DISTRIBUTORS[TL0184]</v>
       </c>
       <c r="B14" t="str">
         <v>23/619/T1/873:</v>
       </c>
-      <c r="C14" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E14" t="str">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>SRI VENKATESWARA MEDICAL AGENCIES[TL0193]</v>
       </c>
       <c r="B15" t="str">
         <v>23/619/T1/874:</v>
       </c>
-      <c r="C15" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E15" t="str">
-        <v>256</v>
+        <v>25600</v>
       </c>
     </row>
   </sheetData>
